--- a/BalanceSheet/JNJ_bal.xlsx
+++ b/BalanceSheet/JNJ_bal.xlsx
@@ -74,7 +74,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="26.400000000000002"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="12.100000000000001"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="17.6"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="17.6"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="17.6"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="17.6"/>
@@ -249,10 +249,8 @@
           <t>Cash and Short Term Investments</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B2" s="0" t="n">
+        <v>24619000000.0</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>25185000000.0</v>
@@ -378,10 +376,8 @@
           <t>Receivables</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B3" s="0" t="n">
+        <v>14938000000.0</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>13576000000.0</v>
@@ -507,10 +503,8 @@
           <t>Inventory</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B4" s="0" t="n">
+        <v>9952000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>9863000000.0</v>
@@ -819,10 +813,8 @@
           <t>Total current assets</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B6" s="0" t="n">
+        <v>52533000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>51237000000.0</v>
@@ -948,10 +940,8 @@
           <t>Property, Plant, Equpment (Net)</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B7" s="0" t="n">
+        <v>18367000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>19766000000.0</v>
@@ -1274,10 +1264,8 @@
           <t>Goodwill and Intangible Assets (Total)</t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B9" s="0" t="n">
+        <v>86798000000.0</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>89795000000.0</v>
@@ -1403,10 +1391,8 @@
           <t>Long Term Assets (Tax, Deferred)</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B10" s="0" t="n">
+        <v>8321000000.0</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>8534000000.0</v>
@@ -1532,10 +1518,8 @@
           <t>Long-term assets (Other)</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B11" s="0" t="n">
+        <v>6538000000.0</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>4081000000.0</v>
@@ -1661,10 +1645,8 @@
           <t>Total non-current assets</t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B12" s="0" t="n">
+        <v>120024000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>123657000000.0</v>
@@ -1791,7 +1773,7 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.0</v>
+        <v>172557000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>174894000000.0</v>
@@ -1917,10 +1899,8 @@
           <t>Notes Payable</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B14" s="0" t="n">
+        <v>3350000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>2631000000.0</v>
@@ -2046,10 +2026,8 @@
           <t>Accounts Payable</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>8503000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>14765000000.0</v>
@@ -2175,10 +2153,8 @@
           <t>Accrued Expenses</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>27202000000.0</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>28965000000.0</v>
@@ -2501,10 +2477,8 @@
           <t>Current Part of Taxes to Pay</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>1877000000.0</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1392000000.0</v>
@@ -2827,10 +2801,8 @@
           <t>Total current liabilities</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>40932000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>42493000000.0</v>
@@ -2956,10 +2928,8 @@
           <t>Long Term Debt (Total)</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B21" s="0" t="n">
+        <v>30263000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>33735000000.0</v>
@@ -3085,10 +3055,8 @@
           <t>Pension and Post-Retirement Liabilities</t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B22" s="0" t="n">
+        <v>10512000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>10771000000.0</v>
@@ -3214,10 +3182,8 @@
           <t>Long Term Tax Liability (Deferred)</t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B23" s="0" t="n">
+        <v>6507000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>-2223000000.0</v>
@@ -3343,10 +3309,8 @@
           <t>Non-current Liabilities (Other)</t>
         </is>
       </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B24" s="0" t="n">
+        <v>18509000000.0</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>28174000000.0</v>
@@ -3472,10 +3436,8 @@
           <t>Total non-current liabilities</t>
         </is>
       </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B25" s="0" t="n">
+        <v>65791000000.0</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>69123000000.0</v>
@@ -3601,10 +3563,8 @@
           <t>Total liabilities</t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B26" s="0" t="n">
+        <v>106723000000.0</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>111616000000.0</v>
@@ -3730,10 +3690,8 @@
           <t>Common Stock (Net)</t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B27" s="0" t="n">
+        <v>3120000000.0</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>3120000000.0</v>
@@ -3859,10 +3817,8 @@
           <t>Retained Earnings</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B28" s="0" t="n">
+        <v>116508000000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>113890000000.0</v>
@@ -3988,10 +3944,8 @@
           <t>Treasury Stock</t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B29" s="0" t="n">
+        <v>38466000000.0</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>38490000000.0</v>
@@ -4117,10 +4071,8 @@
           <t>Common Equity (Total)</t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B30" s="0" t="n">
+        <v>65834000000.0</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>63278000000.0</v>
@@ -4250,10 +4202,8 @@
           <t>Shareholders Equity (Total)</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>65834000000.0</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>63278000000.0</v>
@@ -4379,10 +4329,8 @@
           <t>Shareholders Equity and Liabilities (Total)</t>
         </is>
       </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B32" s="0" t="n">
+        <v>172557000000.0</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>174894000000.0</v>
@@ -4508,10 +4456,8 @@
           <t>Shares (Common)</t>
         </is>
       </c>
-      <c r="B33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B33" s="0" t="n">
+        <v>2632702000.0</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>2632512000.0</v>
@@ -4637,10 +4583,8 @@
           <t>Shareholders Equity (Tangible)</t>
         </is>
       </c>
-      <c r="B34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B34" s="0" t="n">
+        <v>-20964000000.0</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>-26517000000.0</v>
